--- a/Sprite table.xlsx
+++ b/Sprite table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\01Commodore64\Projects\Kickassembler\Platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6E0235-BBC3-47F6-9F65-490A51876A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0F9D2F-04DC-4858-A51E-53DFCEC16F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18570" yWindow="1140" windowWidth="19605" windowHeight="13185" xr2:uid="{DB1E7B13-5554-4C7B-A058-39FC4ECE1397}"/>
+    <workbookView xWindow="10290" yWindow="75" windowWidth="23955" windowHeight="8625" xr2:uid="{DB1E7B13-5554-4C7B-A058-39FC4ECE1397}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="101">
   <si>
     <t>Sprite No.</t>
   </si>
@@ -228,22 +228,115 @@
     <t>Robot T bullet</t>
   </si>
   <si>
-    <t>Bottom robot</t>
-  </si>
-  <si>
-    <t>Middle robot</t>
-  </si>
-  <si>
-    <t>Upper robot</t>
-  </si>
-  <si>
-    <t>Top robot /flying)</t>
-  </si>
-  <si>
-    <t>Bottom robot fires bullet</t>
-  </si>
-  <si>
-    <t>Middle robot fires bullet</t>
+    <t>Level 2</t>
+  </si>
+  <si>
+    <t>Level 1</t>
+  </si>
+  <si>
+    <t>Level 3</t>
+  </si>
+  <si>
+    <t>Level 4</t>
+  </si>
+  <si>
+    <t>Level 5</t>
+  </si>
+  <si>
+    <t>Level 1 (Right/Left)</t>
+  </si>
+  <si>
+    <t>Level 2 (Right/Left)</t>
+  </si>
+  <si>
+    <t>Level 3 (Right/Left)</t>
+  </si>
+  <si>
+    <t>Level 4 (Right/Left)</t>
+  </si>
+  <si>
+    <t>Level 5 (Right/Left)</t>
+  </si>
+  <si>
+    <t>$90</t>
+  </si>
+  <si>
+    <t>$0e</t>
+  </si>
+  <si>
+    <t>$1e</t>
+  </si>
+  <si>
+    <t>$9c</t>
+  </si>
+  <si>
+    <t>$14</t>
+  </si>
+  <si>
+    <t>$54</t>
+  </si>
+  <si>
+    <t>$33</t>
+  </si>
+  <si>
+    <t>$3a</t>
+  </si>
+  <si>
+    <t>$1b</t>
+  </si>
+  <si>
+    <t>$2d</t>
+  </si>
+  <si>
+    <t>$4d</t>
+  </si>
+  <si>
+    <t>$5d</t>
+  </si>
+  <si>
+    <t>$7d</t>
+  </si>
+  <si>
+    <t>$67</t>
+  </si>
+  <si>
+    <t>$45</t>
+  </si>
+  <si>
+    <t>$76</t>
+  </si>
+  <si>
+    <t>$9e</t>
+  </si>
+  <si>
+    <t>$7c</t>
+  </si>
+  <si>
+    <t>$10</t>
+  </si>
+  <si>
+    <t>Y Positions</t>
+  </si>
+  <si>
+    <t>$cd</t>
+  </si>
+  <si>
+    <t>$55</t>
+  </si>
+  <si>
+    <t>$65</t>
+  </si>
+  <si>
+    <t>$75</t>
+  </si>
+  <si>
+    <t>$37</t>
+  </si>
+  <si>
+    <t>$1f</t>
+  </si>
+  <si>
+    <t>$61</t>
   </si>
 </sst>
 </file>
@@ -275,15 +368,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -300,11 +399,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -312,24 +482,104 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -645,10 +895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71CA7328-2E12-4B76-9327-9F3C9A621C33}">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:Y28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,337 +909,566 @@
     <col min="4" max="6" width="14.140625" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F1" s="3" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="32"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="30"/>
+      <c r="H1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6" t="s">
+      <c r="I1" s="10"/>
+      <c r="J1" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="6"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="X1" s="10"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="5"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="J2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="X2" s="20"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="21">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="13">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="14">
         <v>1</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="M3" s="14"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="1"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="21">
+        <v>1</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="13">
+        <v>2</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="14">
+        <v>8</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="P4" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q4" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="R4" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="S4" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="T4" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="U4" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="V4" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="W4" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="X4" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y4" s="1"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="21">
+        <v>2</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="13">
+        <v>2</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="14">
+        <v>9</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="M5" s="36"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="I3" s="2">
-        <v>176</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="P5" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q5" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="R5" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="S5" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="T5" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="39"/>
+      <c r="Y5" s="1"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="21">
+        <v>3</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="13">
+        <v>2</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="14">
+        <v>8</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" s="36"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="P6" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q6" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="R6" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="S6" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="T6" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="39"/>
+      <c r="Y6" s="1"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="21">
+        <v>4</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="13">
+        <v>2</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="14">
+        <v>10</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q7" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="R7" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="S7" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="T7" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="U7" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="V7" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="W7" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="X7" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y7" s="1"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="21">
+        <v>5</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="13">
+        <v>2</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="14">
+        <v>13</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="1"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="21">
+        <v>6</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="13">
+        <v>2</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="14">
+        <v>12</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="1"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="24">
+        <v>7</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="16">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="2">
-        <v>8</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="D10" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="17">
         <v>14</v>
       </c>
-      <c r="H4" s="2">
-        <v>140</v>
-      </c>
-      <c r="I4" s="2">
-        <v>205</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="2">
-        <v>9</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="2">
-        <v>31</v>
-      </c>
-      <c r="I5" s="2">
-        <v>125</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="2">
-        <v>8</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="2">
-        <v>97</v>
-      </c>
-      <c r="I6" s="2">
-        <v>101</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="2">
-        <v>10</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="2">
-        <v>84</v>
-      </c>
-      <c r="I7" s="2">
-        <v>58</v>
-      </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="2">
-        <v>13</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="2">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="2">
-        <v>12</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="2">
-        <v>14</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H10" s="16"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="1"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -998,38 +1477,60 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="6" t="s">
         <v>21</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -1043,10 +1544,15 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -1063,10 +1569,15 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -1205,9 +1716,19 @@
       <c r="D28" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="12">
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="W2:X2"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="J1:N1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
